--- a/Check-list Mail.tm.xlsx
+++ b/Check-list Mail.tm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollga\OneDrive\Рабочий стол\Тестирование ПО\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollga\Miss-QA-git\Mail.tm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E646976-80A6-4F9F-85E1-7218D4194DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C3721-E5B3-44D5-AC7E-B1456F8648B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB3B6CAF-1299-4417-9AFA-B829565CE509}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -181,97 +181,59 @@
     <t>possible to print delivered emails</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mail.gw</t>
-    </r>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t xml:space="preserve">not all letters with attached files were delivered to a temporary email address. </t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>mail box is deleted after 10 minutes since its creation</t>
-  </si>
-  <si>
-    <t>mail box is cleaned in 10 minutes, but still exists</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5. Web-page view</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
     <t>header elements are clickable</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>left-side menu links are clickable</t>
   </si>
   <si>
-    <t>6. Header elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1</t>
-  </si>
-  <si>
     <t>light mode' changes page background</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">successful translation after choosing language from 'language menu'  </t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.3</t>
-  </si>
-  <si>
     <t>elements from drop-down list of accounts are clickable</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.4</t>
-  </si>
-  <si>
     <t>sign-out element deletes current account and automatically creates a new one</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6.5</t>
-  </si>
-  <si>
     <t>possible to copy temporary email address by clicking on it</t>
+  </si>
+  <si>
+    <t>4. Web-page view</t>
+  </si>
+  <si>
+    <t>5. Header elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +268,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -327,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,34 +320,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,19 +661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05FEB85-0ED9-458E-9DE7-B2C6060868AF}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="13" style="8" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="45.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="45.44140625" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
@@ -732,13 +698,13 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -749,7 +715,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -760,7 +726,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -771,7 +737,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -780,12 +746,12 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -795,13 +761,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -812,7 +778,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -823,7 +789,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -834,7 +800,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -844,80 +810,80 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" s="9" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -927,175 +893,117 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="C26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>32</v>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="11" t="s">
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C44" s="14"/>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="A29:XFD29"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A10:XFD10"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A35:XFD35"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>